--- a/Management Programming/YeuCauProject.xlsx
+++ b/Management Programming/YeuCauProject.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiến Độ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>1. Thiết kế form flash – thư viện thực thi file log (1 điểm)</t>
   </si>
@@ -175,6 +176,39 @@
   </si>
   <si>
     <t>Chủ yếu</t>
+  </si>
+  <si>
+    <t>Người dùng</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>Chức Năng</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Xóa</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Tìm Kiếm</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Thiết bị</t>
+  </si>
+  <si>
+    <t>DSD</t>
   </si>
 </sst>
 </file>
@@ -265,12 +299,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,6 +306,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,10 +617,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -595,7 +629,7 @@
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -606,7 +640,7 @@
       <c r="B4" s="1">
         <v>0.25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -617,7 +651,7 @@
       <c r="B5" s="1">
         <v>0.25</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -626,14 +660,14 @@
       <c r="B6" s="1">
         <v>0.25</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -642,7 +676,7 @@
       <c r="B8" s="1">
         <v>0.25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -653,7 +687,7 @@
       <c r="B9" s="1">
         <v>0.25</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -662,7 +696,7 @@
       <c r="B10" s="1">
         <v>0.25</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -671,14 +705,14 @@
       <c r="B11" s="1">
         <v>0.25</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -687,7 +721,7 @@
       <c r="B13" s="1">
         <v>0.25</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -696,7 +730,7 @@
       <c r="B14" s="1">
         <v>0.25</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -705,7 +739,7 @@
       <c r="B15" s="1">
         <v>0.25</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -714,14 +748,14 @@
       <c r="B16" s="1">
         <v>0.25</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -730,8 +764,8 @@
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -742,8 +776,8 @@
       <c r="B19" s="1">
         <v>0.5</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -752,8 +786,8 @@
       <c r="B20" s="1">
         <v>0.5</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -762,15 +796,15 @@
       <c r="B21" s="1">
         <v>0.5</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -779,8 +813,8 @@
       <c r="B23" s="1">
         <v>0.25</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -791,8 +825,8 @@
       <c r="B24" s="1">
         <v>0.25</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -801,8 +835,8 @@
       <c r="B25" s="1">
         <v>0.25</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -811,15 +845,15 @@
       <c r="B26" s="1">
         <v>0.25</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -828,7 +862,7 @@
       <c r="B28" s="1">
         <v>0.25</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -837,7 +871,7 @@
       <c r="B29" s="1">
         <v>0.5</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -846,14 +880,14 @@
       <c r="B30" s="1">
         <v>0.25</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -862,7 +896,7 @@
       <c r="B32" s="1">
         <v>0.25</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -871,7 +905,7 @@
       <c r="B33" s="1">
         <v>0.25</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -880,7 +914,7 @@
       <c r="B34" s="1">
         <v>0.25</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -889,14 +923,14 @@
       <c r="B35" s="1">
         <v>0.25</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -905,7 +939,7 @@
       <c r="B37" s="1">
         <v>0.25</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -914,7 +948,7 @@
       <c r="B38" s="1">
         <v>0.25</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -923,7 +957,7 @@
       <c r="B39" s="1">
         <v>0.25</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -932,14 +966,14 @@
       <c r="B40" s="1">
         <v>0.25</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -948,7 +982,7 @@
       <c r="B42" s="1">
         <v>0.25</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -957,7 +991,7 @@
       <c r="B43" s="1">
         <v>0.25</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -966,14 +1000,14 @@
       <c r="B44" s="1">
         <v>0.5</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -982,7 +1016,7 @@
       <c r="B46" s="1">
         <v>0.5</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -991,8 +1025,8 @@
       <c r="B47" s="1">
         <v>0.5</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1004,20 +1038,103 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+      <formula1>$A$8:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>